--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -903,7 +903,7 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
